--- a/src/assets/CarTypeFilter.xlsx
+++ b/src/assets/CarTypeFilter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/Library/Containers/com.tencent.xinWeChat/Data/Library/Application Support/com.tencent.xinWeChat/2.0b4.0.9/a9f04c281c84879a3a29c6c2ed39332a/Message/MessageTemp/6a859752b3dd110e00c13b2017702986/File/归档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E023C6-6532-48E8-8440-DCDA5E6AD968}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCB7FE5-0B33-564B-940E-864933FE9FD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19725" yWindow="5805" windowWidth="10005" windowHeight="10800" xr2:uid="{63C545A9-4BDD-D94D-B460-0A89544647CF}"/>
+    <workbookView xWindow="14620" yWindow="11300" windowWidth="21020" windowHeight="14200" xr2:uid="{63C545A9-4BDD-D94D-B460-0A89544647CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,11 @@
     <t>商用车</t>
   </si>
   <si>
-    <t>屏蔽屏蔽屏蔽</t>
-  </si>
-  <si>
     <t>采用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0屏蔽屏蔽屏蔽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -61,7 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -421,15 +422,16 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -437,44 +439,44 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
